--- a/campaign/Lawn Sign.Malton.xlsx
+++ b/campaign/Lawn Sign.Malton.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -166,6 +166,81 @@
   </si>
   <si>
     <t>Dulai</t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
+    <t>Wildfern Dr</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>3911</t>
+  </si>
+  <si>
+    <t>HOLLMANN</t>
+  </si>
+  <si>
+    <t>3941</t>
+  </si>
+  <si>
+    <t>BRANDON GATE DR</t>
+  </si>
+  <si>
+    <t>KERSNIK</t>
+  </si>
+  <si>
+    <t>3902</t>
+  </si>
+  <si>
+    <t>RHINEBANK ST</t>
+  </si>
+  <si>
+    <t>WRIGHT</t>
+  </si>
+  <si>
+    <t>3916</t>
+  </si>
+  <si>
+    <t>HARRIS</t>
+  </si>
+  <si>
+    <t>7537</t>
+  </si>
+  <si>
+    <t>WILDFERN DR</t>
+  </si>
+  <si>
+    <t>GALLIMORE / TAYLOR</t>
+  </si>
+  <si>
+    <t>7633</t>
+  </si>
+  <si>
+    <t>SANDHU</t>
+  </si>
+  <si>
+    <t>7661</t>
+  </si>
+  <si>
+    <t>SEHDEV</t>
+  </si>
+  <si>
+    <t>7706</t>
+  </si>
+  <si>
+    <t>AFZAL</t>
+  </si>
+  <si>
+    <t>3106</t>
+  </si>
+  <si>
+    <t>MORNING STAR DR</t>
+  </si>
+  <si>
+    <t>DRUMMOND / BLACK</t>
   </si>
 </sst>
 </file>
@@ -606,16 +681,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
@@ -651,70 +726,73 @@
       <c r="A2" s="3">
         <v>41153</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8">
+        <v>3755</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3">
+        <v>41153</v>
+      </c>
+      <c r="B3" s="8">
+        <v>3785</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="8">
+        <v>7423</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3">
+        <v>41153</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3">
-        <v>41153</v>
-      </c>
-      <c r="B4">
-        <v>7451</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" t="s">
-        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="H5" t="s">
@@ -722,19 +800,16 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3">
-        <v>41153</v>
-      </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="H6" t="s">
@@ -742,70 +817,73 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" t="s">
-        <v>19</v>
+      <c r="A7" s="3">
+        <v>41153</v>
+      </c>
+      <c r="B7">
+        <v>7451</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3">
+        <v>41153</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="4">
-        <v>3295</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="5">
-        <v>3296</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3">
-        <v>41153</v>
-      </c>
-      <c r="B10" s="5">
-        <v>7304</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>11</v>
       </c>
       <c r="H10" t="s">
@@ -816,14 +894,14 @@
       <c r="A11" s="3">
         <v>41153</v>
       </c>
-      <c r="B11" s="5">
-        <v>3132</v>
+      <c r="B11" s="8">
+        <v>7613</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -833,19 +911,16 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="3">
-        <v>41153</v>
-      </c>
-      <c r="B12" s="5">
-        <v>3144</v>
+      <c r="B12" s="8">
+        <v>3754</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
         <v>11</v>
       </c>
       <c r="H12" t="s">
@@ -893,14 +968,14 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="8">
-        <v>7423</v>
+      <c r="B15" s="4">
+        <v>3295</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -910,19 +985,16 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="3">
-        <v>41153</v>
-      </c>
-      <c r="B16" s="8">
-        <v>3755</v>
+      <c r="B16" s="5">
+        <v>3296</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
         <v>11</v>
       </c>
       <c r="H16" t="s">
@@ -930,22 +1002,16 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="3">
-        <v>41153</v>
-      </c>
       <c r="B17" s="8">
-        <v>3785</v>
+        <v>7444</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1004,14 +1070,14 @@
       <c r="A21" s="3">
         <v>41153</v>
       </c>
-      <c r="B21" s="8">
-        <v>7613</v>
+      <c r="B21" s="5">
+        <v>7304</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -1022,13 +1088,13 @@
     </row>
     <row r="22" spans="1:8">
       <c r="B22" s="8">
-        <v>3754</v>
+        <v>7495</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -1038,16 +1104,19 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" s="8">
-        <v>7495</v>
+      <c r="A23" s="3">
+        <v>41153</v>
+      </c>
+      <c r="B23" s="5">
+        <v>3132</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
         <v>11</v>
       </c>
       <c r="H23" t="s">
@@ -1055,34 +1124,211 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="B24" s="8">
-        <v>7305</v>
+      <c r="A24" s="3">
+        <v>41153</v>
+      </c>
+      <c r="B24" s="5">
+        <v>3144</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" s="8">
-        <v>7444</v>
+        <v>3293</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="8">
+        <v>7305</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" s="8">
+        <v>3110</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="8">
+        <v>7728</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="9"/>
+    </row>
   </sheetData>
+  <sortState ref="A2:H26">
+    <sortCondition ref="C1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/campaign/Lawn Sign.Malton.xlsx
+++ b/campaign/Lawn Sign.Malton.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$37</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -681,10 +684,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -722,7 +726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" hidden="1">
       <c r="A2" s="3">
         <v>41153</v>
       </c>
@@ -742,7 +746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" hidden="1">
       <c r="A3" s="3">
         <v>41153</v>
       </c>
@@ -762,7 +766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" hidden="1">
       <c r="B4" s="8">
         <v>7423</v>
       </c>
@@ -779,7 +783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" hidden="1">
       <c r="A5" s="3">
         <v>41153</v>
       </c>
@@ -799,7 +803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" hidden="1">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -816,7 +820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" hidden="1">
       <c r="A7" s="3">
         <v>41153</v>
       </c>
@@ -836,7 +840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" hidden="1">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -853,7 +857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" hidden="1">
       <c r="A9" s="3">
         <v>41153</v>
       </c>
@@ -873,7 +877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" hidden="1">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -890,7 +894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" hidden="1">
       <c r="A11" s="3">
         <v>41153</v>
       </c>
@@ -910,7 +914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" hidden="1">
       <c r="B12" s="8">
         <v>3754</v>
       </c>
@@ -927,7 +931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" hidden="1">
       <c r="A13" s="3">
         <v>41153</v>
       </c>
@@ -947,7 +951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" hidden="1">
       <c r="A14" s="3">
         <v>41153</v>
       </c>
@@ -967,7 +971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" hidden="1">
       <c r="B15" s="4">
         <v>3295</v>
       </c>
@@ -984,7 +988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" hidden="1">
       <c r="B16" s="5">
         <v>3296</v>
       </c>
@@ -1015,7 +1019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" hidden="1">
       <c r="B18" s="8">
         <v>3819</v>
       </c>
@@ -1032,7 +1036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" hidden="1">
       <c r="B19" s="8">
         <v>3821</v>
       </c>
@@ -1049,7 +1053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" hidden="1">
       <c r="B20" s="8">
         <v>3826</v>
       </c>
@@ -1066,7 +1070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" hidden="1">
       <c r="A21" s="3">
         <v>41153</v>
       </c>
@@ -1086,7 +1090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" hidden="1">
       <c r="B22" s="8">
         <v>7495</v>
       </c>
@@ -1103,7 +1107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" hidden="1">
       <c r="A23" s="3">
         <v>41153</v>
       </c>
@@ -1123,7 +1127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" hidden="1">
       <c r="A24" s="3">
         <v>41153</v>
       </c>
@@ -1326,6 +1330,11 @@
       <c r="B38" s="9"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H37">
+    <filterColumn colId="7">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:H26">
     <sortCondition ref="C1"/>
   </sortState>
